--- a/r4-core-AdditionalAdministrativeGenderCodes/StructureDefinition-at-core-ext-patient-administrativeGenderAddition.xlsx
+++ b/r4-core-AdditionalAdministrativeGenderCodes/StructureDefinition-at-core-ext-patient-administrativeGenderAddition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-09T18:15:38+00:00</t>
+    <t>2023-12-09T18:46:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-AdditionalAdministrativeGenderCodes/StructureDefinition-at-core-ext-patient-administrativeGenderAddition.xlsx
+++ b/r4-core-AdditionalAdministrativeGenderCodes/StructureDefinition-at-core-ext-patient-administrativeGenderAddition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-09T18:46:14+00:00</t>
+    <t>2024-01-13T13:29:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
